--- a/Testovani/akce_nahoru_dolu.xlsx
+++ b/Testovani/akce_nahoru_dolu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarekDarsaU\Documents\Škola\6.Semestr\Bakalarka\Testovani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Škola\6.semester\Bakalarka\Testovani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6764ED-6B54-498E-A06A-BA93D767F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922B7D4B-EAC2-406D-A34B-6EB39A3C4E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="28800" yWindow="480" windowWidth="23445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Sval 1</t>
   </si>
   <si>
     <t>Počáteční hodnota v mV</t>
-  </si>
-  <si>
-    <t>Honota která by měla být v mV</t>
-  </si>
-  <si>
-    <t>Hodnota která je v mV</t>
   </si>
   <si>
     <t>Posun v krocích</t>
@@ -61,12 +55,21 @@
   <si>
     <t>Sval 4</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Hodnota, která by měla být v mV</t>
+  </si>
+  <si>
+    <t>Hodnota, která je v mV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +85,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +106,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -115,17 +137,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4"/>
       </left>
@@ -136,11 +147,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -148,14 +179,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -446,80 +516,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AA10"/>
+  <dimension ref="B2:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:27" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:27" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="X3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>642</v>
       </c>
@@ -544,8 +615,32 @@
       <c r="O4">
         <v>-3</v>
       </c>
+      <c r="R4">
+        <v>639</v>
+      </c>
+      <c r="S4">
+        <v>650</v>
+      </c>
+      <c r="T4" s="3">
+        <v>633</v>
+      </c>
+      <c r="U4">
+        <v>-2</v>
+      </c>
+      <c r="X4">
+        <v>639</v>
+      </c>
+      <c r="Y4">
+        <v>650</v>
+      </c>
+      <c r="Z4">
+        <v>648</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>E4</f>
         <v>649</v>
@@ -553,7 +648,7 @@
       <c r="D5">
         <v>700</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>669</v>
       </c>
       <c r="F5">
@@ -565,16 +660,42 @@
       <c r="M5">
         <v>700</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>651</v>
       </c>
       <c r="O5">
         <v>29</v>
       </c>
+      <c r="R5">
+        <f>T4</f>
+        <v>633</v>
+      </c>
+      <c r="S5">
+        <v>630</v>
+      </c>
+      <c r="T5">
+        <v>636</v>
+      </c>
+      <c r="U5">
+        <v>-2</v>
+      </c>
+      <c r="X5">
+        <f>Z4</f>
+        <v>648</v>
+      </c>
+      <c r="Y5">
+        <v>630</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>643</v>
+      </c>
+      <c r="AA5">
+        <v>-7</v>
+      </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C6">
-        <f t="shared" ref="C6:C12" si="0">E5</f>
+        <f t="shared" ref="C6:C10" si="0">E5</f>
         <v>669</v>
       </c>
       <c r="D6">
@@ -599,8 +720,34 @@
       <c r="O6">
         <v>29</v>
       </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R10" si="2">T5</f>
+        <v>636</v>
+      </c>
+      <c r="S6">
+        <v>630</v>
+      </c>
+      <c r="T6">
+        <v>635</v>
+      </c>
+      <c r="U6">
+        <v>-3</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X10" si="3">Z5</f>
+        <v>643</v>
+      </c>
+      <c r="Y6">
+        <v>630</v>
+      </c>
+      <c r="Z6">
+        <v>639</v>
+      </c>
+      <c r="AA6">
+        <v>-5</v>
+      </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C7">
         <f t="shared" si="0"/>
         <v>705</v>
@@ -608,7 +755,7 @@
       <c r="D7">
         <v>630</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>687</v>
       </c>
       <c r="F7">
@@ -621,14 +768,40 @@
       <c r="M7">
         <v>630</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>679</v>
       </c>
       <c r="O7">
         <v>-41</v>
       </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>635</v>
+      </c>
+      <c r="S7">
+        <v>700</v>
+      </c>
+      <c r="T7" s="3">
+        <v>655</v>
+      </c>
+      <c r="U7">
+        <v>28</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>639</v>
+      </c>
+      <c r="Y7">
+        <v>700</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>671</v>
+      </c>
+      <c r="AA7">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C8">
         <f t="shared" si="0"/>
         <v>687</v>
@@ -655,8 +828,34 @@
       <c r="O8">
         <v>-30</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>655</v>
+      </c>
+      <c r="S8">
+        <v>700</v>
+      </c>
+      <c r="T8">
+        <v>693</v>
+      </c>
+      <c r="U8">
+        <v>19</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>671</v>
+      </c>
+      <c r="Y8">
+        <v>700</v>
+      </c>
+      <c r="Z8">
+        <v>693</v>
+      </c>
+      <c r="AA8">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C9">
         <f t="shared" si="0"/>
         <v>625</v>
@@ -677,14 +876,40 @@
       <c r="M9">
         <v>650</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>635</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>693</v>
+      </c>
+      <c r="S9">
+        <v>650</v>
+      </c>
+      <c r="T9" s="3">
+        <v>691</v>
+      </c>
+      <c r="U9">
+        <v>-19</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>693</v>
+      </c>
+      <c r="Y9">
+        <v>650</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>693</v>
+      </c>
+      <c r="AA9">
+        <v>-17</v>
+      </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C10">
         <f t="shared" si="0"/>
         <v>641</v>
@@ -705,24 +930,70 @@
       <c r="M10">
         <v>650</v>
       </c>
-      <c r="N10">
-        <v>643</v>
+      <c r="N10" s="3">
+        <v>641</v>
       </c>
       <c r="O10">
         <v>9</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>691</v>
+      </c>
+      <c r="S10">
+        <v>650</v>
+      </c>
+      <c r="T10">
+        <v>658</v>
+      </c>
+      <c r="U10">
+        <v>-18</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>693</v>
+      </c>
+      <c r="Y10">
+        <v>650</v>
+      </c>
+      <c r="Z10">
+        <v>647</v>
+      </c>
+      <c r="AA10">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
       <formula>$D4-10</formula>
       <formula>$D4+10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
       <formula>$M4-10</formula>
       <formula>$M4+10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T10">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+      <formula>$S4-10</formula>
+      <formula>$S4+10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z10">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>$Y4-10</formula>
+      <formula>$Y4+10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
